--- a/Fase 1/Diseño preliminar.xlsx
+++ b/Fase 1/Diseño preliminar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelt\Documents\GitHub\Proyecto_2-base-de-datos-\Fase 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelt\Documents\GitHub\PROYECTO2-BD\Fase 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A04F0-BB5A-4AF5-861E-A40449554089}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC63F1-F538-40D0-9D2F-4E357F4CC4C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{80EFD7C6-B2C2-4EE2-9D0B-04D3B12B7C29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t xml:space="preserve">Diseño de la base de datos </t>
   </si>
@@ -72,15 +72,6 @@
     <t>Calzada Roosevelt 39-77 Zona 11</t>
   </si>
   <si>
-    <t># de ventas al año (Quetzales)</t>
-  </si>
-  <si>
-    <t>Salario  (Quetzales)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinero gastado al año (Quetzales)  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Producto </t>
   </si>
   <si>
@@ -130,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve">4:00 P.M. </t>
+  </si>
+  <si>
+    <t>Salario</t>
   </si>
 </sst>
 </file>
@@ -320,15 +314,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -339,6 +324,15 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +655,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,43 +663,43 @@
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
@@ -713,13 +707,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
@@ -727,148 +718,133 @@
         <v>8</v>
       </c>
       <c r="E7" s="7">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="7">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1230</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="E15" s="14">
+        <v>130</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="16" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="17">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="17">
+        <v>43560</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="16">
         <v>50</v>
-      </c>
-      <c r="F15" s="17">
-        <v>130</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="20">
-        <v>43560</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
